--- a/test_results_variant2.xlsx
+++ b/test_results_variant2.xlsx
@@ -642,7 +642,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Gosia</t>
+          <t>Malgorzata</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -688,22 +688,34 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>NIE</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
+          <t>TAK</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>751364000041342001</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>Malgorzata Owerko</t>
+        </is>
+      </c>
       <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>E+L+F</t>
+        </is>
+      </c>
       <c r="T2" t="inlineStr">
         <is>
           <t>NIE</t>
         </is>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -730,15 +742,15 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>create_new</t>
+          <t>link_to_existing</t>
         </is>
       </c>
       <c r="AB2" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>Nowy kontakt w istniejącej firmie</t>
+          <t>Znaleziono istniejący kontakt: Malgorzata Owerko (E+L+F)</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
@@ -1245,7 +1257,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Magda</t>
+          <t>Magdalena</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -1573,7 +1585,7 @@
         </is>
       </c>
       <c r="AB9" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
@@ -2059,7 +2071,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Dabrowski</t>
+          <t>Dąbrowski</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -2100,22 +2112,34 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>NIE</t>
-        </is>
-      </c>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
+          <t>TAK</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>751364000002328390</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>Michał Dąbrowski</t>
+        </is>
+      </c>
       <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>E+L+F</t>
+        </is>
+      </c>
       <c r="T14" t="inlineStr">
         <is>
           <t>NIE</t>
         </is>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V14" t="inlineStr">
         <is>
@@ -2142,15 +2166,15 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>create_new</t>
+          <t>link_to_existing</t>
         </is>
       </c>
       <c r="AB14" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>Nowy kontakt w istniejącej firmie</t>
+          <t>Znaleziono istniejący kontakt: Michał Dąbrowski (E+L+F)</t>
         </is>
       </c>
       <c r="AD14" t="inlineStr">
@@ -2200,7 +2224,7 @@
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr">
         <is>
-          <t>HVD Holding</t>
+          <t>HVD</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -2392,7 +2416,7 @@
         </is>
       </c>
       <c r="AB16" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AC16" t="inlineStr">
         <is>
